--- a/arranged_dataset/review/cbs_nbu_review.xlsx
+++ b/arranged_dataset/review/cbs_nbu_review.xlsx
@@ -3796,10 +3796,10 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F2">
-        <v>-0.5395600386362311</v>
+        <v>1.349937712049494</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1">
@@ -3813,10 +3813,10 @@
         <v>3.5</v>
       </c>
       <c r="E3">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F3">
-        <v>-0.5148305977854506</v>
+        <v>1.288066553305522</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
@@ -3830,10 +3830,10 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F4">
-        <v>-0.05947404041600266</v>
+        <v>1.023548235559406</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -3847,10 +3847,10 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F5">
-        <v>-0.08789150352811824</v>
+        <v>1.512612775718915</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -3864,10 +3864,10 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F6">
-        <v>-0.06240862174347302</v>
+        <v>1.07405238020517</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
@@ -3881,10 +3881,10 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F7">
-        <v>-0.1170004591648617</v>
+        <v>0.2927261487951637</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -3898,10 +3898,10 @@
         <v>38.5</v>
       </c>
       <c r="E8">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F8">
-        <v>0.02143770378715244</v>
+        <v>0.2760337381115302</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
@@ -3915,10 +3915,10 @@
         <v>82.5</v>
       </c>
       <c r="E9">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F9">
-        <v>0.06171377701396444</v>
+        <v>-0.7811421325542548</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
@@ -3932,10 +3932,10 @@
         <v>95.5</v>
       </c>
       <c r="E10">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F10">
-        <v>0.1215909442582744</v>
+        <v>-1.539037376949107</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
@@ -3949,10 +3949,10 @@
         <v>98.5</v>
       </c>
       <c r="E11">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F11">
-        <v>0.1665467393147813</v>
+        <v>-2.108065352876844</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
@@ -3966,10 +3966,10 @@
         <v>97.5</v>
       </c>
       <c r="E12">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F12">
-        <v>0.1458097535159601</v>
+        <v>-1.845586955128264</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -3983,10 +3983,10 @@
         <v>88.5</v>
       </c>
       <c r="E13">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F13">
-        <v>0.08121808956245824</v>
+        <v>-1.028017968636815</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -4000,10 +4000,10 @@
         <v>85</v>
       </c>
       <c r="E14">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F14">
-        <v>0.06903712200444663</v>
+        <v>-0.8738373717712831</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -4017,10 +4017,10 @@
         <v>98.5</v>
       </c>
       <c r="E15">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F15">
-        <v>0.1665467393147813</v>
+        <v>-2.108065352876844</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -4034,10 +4034,10 @@
         <v>75.5</v>
       </c>
       <c r="E16">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F16">
-        <v>0.04479328964043103</v>
+        <v>-0.5669710636237558</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -4051,10 +4051,10 @@
         <v>88</v>
       </c>
       <c r="E17">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F17">
-        <v>0.07929872055467017</v>
+        <v>-1.003723555420738</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -4068,10 +4068,10 @@
         <v>77.5</v>
       </c>
       <c r="E18">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F18">
-        <v>0.0492231525605273</v>
+        <v>-0.6230420535348742</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -4085,10 +4085,10 @@
         <v>99.5</v>
       </c>
       <c r="E19">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F19">
-        <v>0.2106735320240355</v>
+        <v>-2.666600231594229</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -4102,10 +4102,10 @@
         <v>97</v>
       </c>
       <c r="E20">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F20">
-        <v>0.138348727855444</v>
+        <v>-1.751149022830282</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -4119,10 +4119,10 @@
         <v>90.5</v>
       </c>
       <c r="E21">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F21">
-        <v>0.08971151047355551</v>
+        <v>-1.135523443819029</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -4136,10 +4136,10 @@
         <v>90</v>
       </c>
       <c r="E22">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F22">
-        <v>0.08744953817798153</v>
+        <v>-1.106892529487801</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -4153,10 +4153,10 @@
         <v>95</v>
       </c>
       <c r="E23">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F23">
-        <v>0.1171886713708244</v>
+        <v>-1.483315607876209</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -4170,10 +4170,10 @@
         <v>97.5</v>
       </c>
       <c r="E24">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F24">
-        <v>0.1458097535159601</v>
+        <v>-1.845586955128264</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -4187,10 +4187,10 @@
         <v>4.5</v>
       </c>
       <c r="E25">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F25">
-        <v>-0.1215909442582743</v>
+        <v>1.539037376949107</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -4204,10 +4204,10 @@
         <v>16</v>
       </c>
       <c r="E26">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F26">
-        <v>-0.06599747744882059</v>
+        <v>0.8353630708084465</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -4221,10 +4221,10 @@
         <v>0.5</v>
       </c>
       <c r="E27">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F27">
-        <v>-0.8216267748937357</v>
+        <v>2.055646988724519</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -4238,10 +4238,10 @@
         <v>0.5</v>
       </c>
       <c r="E28">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F28">
-        <v>-0.8216267748937357</v>
+        <v>2.055646988724519</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -4255,10 +4255,10 @@
         <v>2.5</v>
       </c>
       <c r="E29">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F29">
-        <v>-0.5686580387122437</v>
+        <v>1.422738669931979</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -4272,10 +4272,10 @@
         <v>9.5</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.225234954292585</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -4289,10 +4289,10 @@
         <v>0.5</v>
       </c>
       <c r="E31">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F31">
-        <v>-0.8216267748937357</v>
+        <v>2.055646988724519</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -4306,10 +4306,10 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F32">
-        <v>-0.713254503137891</v>
+        <v>1.784507901119993</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -4323,10 +4323,10 @@
         <v>1.5</v>
       </c>
       <c r="E33">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F33">
-        <v>-0.6495322833276466</v>
+        <v>1.625079808863977</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -4340,10 +4340,10 @@
         <v>2.5</v>
       </c>
       <c r="E34">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F34">
-        <v>-0.5686580387122437</v>
+        <v>1.422738669931979</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -4357,10 +4357,10 @@
         <v>26</v>
       </c>
       <c r="E35">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F35">
-        <v>-0.1623552391354568</v>
+        <v>0.406200319452364</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -4374,10 +4374,10 @@
         <v>4.5</v>
       </c>
       <c r="E36">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F36">
-        <v>-0.4742046826072699</v>
+        <v>1.186423638600112</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -4391,10 +4391,10 @@
         <v>50</v>
       </c>
       <c r="E37">
-        <v>-0.0796</v>
+        <v>0.4639685</v>
       </c>
       <c r="F37">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -4408,10 +4408,10 @@
         <v>95</v>
       </c>
       <c r="E38">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F38">
-        <v>0.457035818346215</v>
+        <v>-1.143468460900819</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -4425,10 +4425,10 @@
         <v>99.5</v>
       </c>
       <c r="E39">
-        <v>-0.0796</v>
+        <v>0.4639685</v>
       </c>
       <c r="F39">
-        <v>0.421347064048071</v>
+        <v>-2.455926699570194</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -4442,10 +4442,10 @@
         <v>99</v>
       </c>
       <c r="E40">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F40">
-        <v>0.7132545031378901</v>
+        <v>-1.78450790111999</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4459,10 +4459,10 @@
         <v>3.5</v>
       </c>
       <c r="E41">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F41">
-        <v>-0.5148305977854506</v>
+        <v>1.288066553305522</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4476,10 +4476,10 @@
         <v>98.5</v>
       </c>
       <c r="E42">
-        <v>-0.0796</v>
+        <v>0.4639685</v>
       </c>
       <c r="F42">
-        <v>0.3330934786295627</v>
+        <v>-1.941518613562063</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4493,10 +4493,10 @@
         <v>98.5</v>
       </c>
       <c r="E43">
-        <v>-0.0796</v>
+        <v>0.4639685</v>
       </c>
       <c r="F43">
-        <v>0.3330934786295627</v>
+        <v>-1.941518613562063</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4510,10 +4510,10 @@
         <v>98.5</v>
       </c>
       <c r="E44">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F44">
-        <v>0.6495322833276472</v>
+        <v>-1.625079808863979</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4527,10 +4527,10 @@
         <v>4.5</v>
       </c>
       <c r="E45">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F45">
-        <v>-0.4742046826072699</v>
+        <v>1.186423638600112</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4544,10 +4544,10 @@
         <v>3.5</v>
       </c>
       <c r="E46">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F46">
-        <v>-0.5148305977854506</v>
+        <v>1.288066553305522</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4561,10 +4561,10 @@
         <v>9.5</v>
       </c>
       <c r="E47">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F47">
-        <v>-0.3498748908468666</v>
+        <v>0.8753600634457182</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4578,10 +4578,10 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F48">
-        <v>-0.4570358183462149</v>
+        <v>1.143468460900818</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4595,10 +4595,10 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F49">
-        <v>-0.5395600386362311</v>
+        <v>1.349937712049494</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4612,10 +4612,10 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>0.07363</v>
+        <v>0.6171985</v>
       </c>
       <c r="F50">
-        <v>0.2340001035285192</v>
+        <v>1.961490057010006</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4629,10 +4629,10 @@
         <v>4.5</v>
       </c>
       <c r="E51">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F51">
-        <v>-0.4742046826072699</v>
+        <v>1.186423638600112</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4646,10 +4646,10 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F52">
-        <v>-0.5395600386362311</v>
+        <v>1.349937712049494</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4663,10 +4663,10 @@
         <v>92.5</v>
       </c>
       <c r="E53">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F53">
-        <v>-0.1149882284093867</v>
+        <v>-1.480598427975647</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4680,10 +4680,10 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F54">
-        <v>-0.4570358183462149</v>
+        <v>1.143468460900818</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4697,10 +4697,10 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F55">
-        <v>-0.4932975155466081</v>
+        <v>1.234192437934879</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4714,10 +4714,10 @@
         <v>98.5</v>
       </c>
       <c r="E56">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F56">
-        <v>-0.1915287502119985</v>
+        <v>-2.466140842403625</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4731,10 +4731,10 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <v>-0.04577</v>
+        <v>0.4977985</v>
       </c>
       <c r="F57">
-        <v>-0.1781286150445234</v>
+        <v>1.937342306669023</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4748,10 +4748,10 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>-0.04577</v>
+        <v>0.4977985</v>
       </c>
       <c r="F58">
-        <v>-0.2103186355406602</v>
+        <v>2.287443768717223</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4765,10 +4765,10 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F59">
-        <v>-0.1828857700353567</v>
+        <v>2.314876634222527</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4782,10 +4782,10 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F60">
-        <v>-0.1828857700353567</v>
+        <v>2.314876634222527</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4799,10 +4799,10 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F61">
-        <v>-0.1264865424478482</v>
+        <v>1.601003411033639</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4816,10 +4816,10 @@
         <v>2.5</v>
       </c>
       <c r="E62">
-        <v>-0.1194</v>
+        <v>0.4241684999999999</v>
       </c>
       <c r="F62">
-        <v>-0.4374292605478798</v>
+        <v>1.553967448096343</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4833,10 +4833,10 @@
         <v>2.5</v>
       </c>
       <c r="E63">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F63">
-        <v>-0.5686580387122437</v>
+        <v>1.422738669931979</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4850,10 +4850,10 @@
         <v>35</v>
       </c>
       <c r="E64">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F64">
-        <v>-0.0246377604945677</v>
+        <v>0.3118524534599906</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -4867,10 +4867,10 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>-0.08756</v>
+        <v>0.4560085</v>
       </c>
       <c r="F65">
-        <v>-0.3407677853025665</v>
+        <v>1.77470313641098</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -4884,10 +4884,10 @@
         <v>3.5</v>
       </c>
       <c r="E66">
-        <v>-0.04577</v>
+        <v>0.4977985</v>
       </c>
       <c r="F66">
-        <v>-0.1518090224239149</v>
+        <v>1.651088128667057</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -4901,10 +4901,10 @@
         <v>92</v>
       </c>
       <c r="E67">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F67">
-        <v>-0.1117862238088485</v>
+        <v>-1.439369138303934</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -4918,10 +4918,10 @@
         <v>2</v>
       </c>
       <c r="E68">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F68">
-        <v>-0.6040883466727315</v>
+        <v>1.511382575040815</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="100" customHeight="1">
@@ -4935,10 +4935,10 @@
         <v>3</v>
       </c>
       <c r="E69">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F69">
-        <v>-0.5395600386362311</v>
+        <v>1.349937712049494</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="100" customHeight="1">
@@ -4952,10 +4952,10 @@
         <v>3</v>
       </c>
       <c r="E70">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F70">
-        <v>-0.5395600386362311</v>
+        <v>1.349937712049494</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="100" customHeight="1">
@@ -4969,10 +4969,10 @@
         <v>7</v>
       </c>
       <c r="E71">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F71">
-        <v>-0.07721267692132359</v>
+        <v>1.328830169815979</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="100" customHeight="1">
@@ -4986,10 +4986,10 @@
         <v>7.5</v>
       </c>
       <c r="E72">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F72">
-        <v>-0.3899600789535725</v>
+        <v>0.9756501206126882</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="100" customHeight="1">
@@ -5003,10 +5003,10 @@
         <v>1.5</v>
       </c>
       <c r="E73">
-        <v>-0.1194</v>
+        <v>0.4241684999999999</v>
       </c>
       <c r="F73">
-        <v>-0.4996402179443435</v>
+        <v>1.77497187424728</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="100" customHeight="1">
@@ -5020,10 +5020,10 @@
         <v>89.09999999999999</v>
       </c>
       <c r="E74">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F74">
-        <v>-0.1045245781257729</v>
+        <v>-1.246560118727967</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="100" customHeight="1">
@@ -5037,10 +5037,10 @@
         <v>85.5</v>
       </c>
       <c r="E75">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F75">
-        <v>-0.08827479439418026</v>
+        <v>-1.052765197944994</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="100" customHeight="1">
@@ -5054,10 +5054,10 @@
         <v>94.7</v>
       </c>
       <c r="E76">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F76">
-        <v>-0.1434296071867894</v>
+        <v>-1.71054149530965</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="100" customHeight="1">
@@ -5071,10 +5071,10 @@
         <v>3</v>
       </c>
       <c r="E77">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F77">
-        <v>0.1729359098193048</v>
+        <v>2.062433660505029</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="100" customHeight="1">
@@ -5088,10 +5088,10 @@
         <v>3.5</v>
       </c>
       <c r="E78">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F78">
-        <v>-0.5148305977854506</v>
+        <v>1.288066553305522</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/review/cbs_nbu_review.xlsx
+++ b/arranged_dataset/review/cbs_nbu_review.xlsx
@@ -22,7 +22,7 @@
     <t>ROMol</t>
   </si>
   <si>
-    <t>inchikey</t>
+    <t>InChIKey</t>
   </si>
   <si>
     <t>er.</t>
